--- a/data/trans_camb/P45C_R1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,53</t>
+          <t>-1,3; 2,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,65</t>
+          <t>-2,43; 0,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,56</t>
+          <t>-1,78; 1,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,66</t>
+          <t>-2,02; 1,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,71</t>
+          <t>-1,27; 2,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,17</t>
+          <t>-1,86; 1,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,61</t>
+          <t>-1,11; 1,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,95</t>
+          <t>-1,51; 0,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,83</t>
+          <t>-1,38; 0,85</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,36; 317,38</t>
+          <t>-61,57; 412,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,56</t>
+          <t>-100,0; 365,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,09; 260,66</t>
+          <t>-76,8; 236,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-88,7; 311,36</t>
+          <t>-100,0; 346,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,37; 576,4</t>
+          <t>-68,47; 485,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,08; 326,55</t>
+          <t>-81,59; 277,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-58,26; 184,86</t>
+          <t>-55,87; 178,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,87; 114,15</t>
+          <t>-72,72; 108,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,08; 92,37</t>
+          <t>-66,05; 102,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,11</t>
+          <t>-1,39; 1,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,06</t>
+          <t>-1,13; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,83</t>
+          <t>-1,26; 2,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,63</t>
+          <t>-0,93; 3,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,68</t>
+          <t>-1,41; 2,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,29</t>
+          <t>-1,02; 3,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,1</t>
+          <t>-0,76; 2,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,69</t>
+          <t>-0,8; 1,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,39</t>
+          <t>-0,65; 2,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-83,59; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,23; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,27; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,1; 525,86</t>
+          <t>-50,88; 469,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,54; 378,47</t>
+          <t>-67,06; 388,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,83; 403,94</t>
+          <t>-54,67; 423,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 317,85</t>
+          <t>-47,29; 272,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 270,48</t>
+          <t>-50,93; 243,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 323,89</t>
+          <t>-46,67; 345,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -0,0</t>
+          <t>-3,64; 0,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; -1,14</t>
+          <t>-4,47; -1,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,82</t>
+          <t>-3,99; 0,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,1</t>
+          <t>-5,46; 1,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; -1,21</t>
+          <t>-7,2; -1,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,46</t>
+          <t>-6,23; 0,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,16</t>
+          <t>-3,16; -0,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -1,57</t>
+          <t>-4,53; -1,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 0,07</t>
+          <t>-3,46; 0,16</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1223,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,04; 8,67</t>
+          <t>-84,13; 13,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -34,57</t>
+          <t>-100,0; -40,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,64; 37,07</t>
+          <t>-86,15; 28,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-88,33; 104,1</t>
+          <t>-89,58; 105,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,04</t>
+          <t>-100,0; 69,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,93; -3,92</t>
+          <t>-77,04; 0,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -55,17</t>
+          <t>-100,0; -57,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,94; 2,35</t>
+          <t>-82,06; 5,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,5</t>
+          <t>-1,58; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,03</t>
+          <t>-1,8; 0,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,97</t>
+          <t>-1,27; 0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,57</t>
+          <t>-2,32; 0,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; -0,34</t>
+          <t>-2,89; -0,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,2</t>
+          <t>-2,62; 0,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,09</t>
+          <t>-1,46; 0,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; -0,28</t>
+          <t>-1,84; -0,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,25</t>
+          <t>-1,43; 0,31</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,41; 57,16</t>
+          <t>-71,19; 37,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,62; 16,03</t>
+          <t>-82,85; 11,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,92; 102,25</t>
+          <t>-58,06; 81,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-75,55; 62,72</t>
+          <t>-76,7; 42,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-88,45; -7,8</t>
+          <t>-89,59; -9,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 22,15</t>
+          <t>-82,65; 5,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-65,17; 12,76</t>
+          <t>-62,07; 14,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-78,36; -15,7</t>
+          <t>-77,88; -26,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,35; 18,39</t>
+          <t>-59,82; 30,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,69</t>
+          <t>-1,46; 1,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,03</t>
+          <t>-1,91; 1,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,91</t>
+          <t>-0,89; 3,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,84</t>
+          <t>-2,01; 0,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,55</t>
+          <t>-2,17; 0,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,88</t>
+          <t>-1,23; 1,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,72</t>
+          <t>-1,2; 0,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,38</t>
+          <t>-1,46; 0,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,67</t>
+          <t>-0,58; 1,61</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-72,69; 341,19</t>
+          <t>-67,77; 390,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,92; 223,44</t>
+          <t>-82,23; 199,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,69; 522,39</t>
+          <t>-54,47; 547,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-74,07; 99,05</t>
+          <t>-74,67; 110,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-80,05; 83,46</t>
+          <t>-81,6; 103,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,31; 225,31</t>
+          <t>-47,59; 216,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-60,79; 76,91</t>
+          <t>-56,85; 90,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-69,95; 52,62</t>
+          <t>-66,34; 52,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 195,86</t>
+          <t>-26,51; 173,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,85</t>
+          <t>-2,33; 1,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 3,44</t>
+          <t>-1,42; 3,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 5,48</t>
+          <t>-1,94; 4,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,43</t>
+          <t>-0,52; 1,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,84</t>
+          <t>-1,01; 0,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,1</t>
+          <t>-1,45; 0,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,11</t>
+          <t>-0,63; 1,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,01</t>
+          <t>-0,68; 1,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,58</t>
+          <t>-1,15; 0,69</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-84,05; 1088,38</t>
+          <t>-100,0; 771,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 162,89</t>
+          <t>-34,15; 169,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-61,59; 112,3</t>
+          <t>-62,35; 106,56</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-83,79; 17,87</t>
+          <t>-83,8; 24,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,02; 130,33</t>
+          <t>-39,97; 119,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,66; 116,51</t>
+          <t>-44,76; 117,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-79,03; 85,47</t>
+          <t>-76,8; 97,58</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,17</t>
+          <t>-1,01; 0,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,4; -0,21</t>
+          <t>-1,37; -0,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,59</t>
+          <t>-0,79; 0,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,54</t>
+          <t>-0,75; 0,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,01</t>
+          <t>-1,16; 0,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,29</t>
+          <t>-0,84; 0,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,2</t>
+          <t>-0,71; 0,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,07; -0,26</t>
+          <t>-1,13; -0,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,25</t>
+          <t>-0,65; 0,28</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,27; 14,56</t>
+          <t>-50,37; 17,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-70,02; -14,31</t>
+          <t>-66,84; -12,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 43,67</t>
+          <t>-39,48; 53,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 44,07</t>
+          <t>-36,88; 34,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-57,28; 1,68</t>
+          <t>-56,78; 1,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-44,07; 21,8</t>
+          <t>-42,69; 22,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-36,34; 14,23</t>
+          <t>-36,86; 12,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-54,82; -16,97</t>
+          <t>-56,04; -17,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 16,06</t>
+          <t>-34,37; 19,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
